--- a/Documentation/Sénar.xlsx
+++ b/Documentation/Sénar.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\BatailleNaval\Bataille navale pas code\UseCase et Senar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\BatailleNavale\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="5805" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="5805"/>
   </bookViews>
   <sheets>
-    <sheet name="Jouer a la BN" sheetId="1" r:id="rId1"/>
-    <sheet name="Apprendre a jouer a la BN" sheetId="2" r:id="rId2"/>
+    <sheet name="Jouer" sheetId="1" r:id="rId1"/>
+    <sheet name="Apprendre a jouer" sheetId="2" r:id="rId2"/>
     <sheet name="Afficher les scores" sheetId="3" r:id="rId3"/>
     <sheet name="Quitter l'application" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="46">
   <si>
     <t>identifiant</t>
   </si>
@@ -59,20 +59,12 @@
     <t>Jouer</t>
   </si>
   <si>
-    <t>Jouer a la BN</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
     <t>J'executer l'application</t>
   </si>
   <si>
-    <t>J'entre mes première
-coordonée et j'observe se qui
-se passe</t>
-  </si>
-  <si>
     <t>Je joue</t>
   </si>
   <si>
@@ -82,18 +74,9 @@
     <t>L'application s'ouvre</t>
   </si>
   <si>
-    <t>Je choisit se que je veut faire</t>
-  </si>
-  <si>
-    <t>Apprendre a jouer a la BN</t>
-  </si>
-  <si>
     <t>Savoir jouer a la BN</t>
   </si>
   <si>
-    <t>L'ordinateur m'affiche si j'ai toucher et je dois a nouveau saisir des coordonée jusqua que tous les bateaux enemis soient détruit</t>
-  </si>
-  <si>
     <t>L'application me demande de saisir mes première coordonée</t>
   </si>
   <si>
@@ -106,15 +89,6 @@
     <t>Je peut jouer</t>
   </si>
   <si>
-    <t>L'application m'affiche les
-regle de la bataille navale, 
-comment jouer et un exemple</t>
-  </si>
-  <si>
-    <t>Si je pense que j'ai bien 
-compris les règle</t>
-  </si>
-  <si>
     <t>W</t>
   </si>
   <si>
@@ -128,10 +102,6 @@
   </si>
   <si>
     <t>Je sais jouer</t>
-  </si>
-  <si>
-    <t>Je saisit 
-"Apprendre a jouer"</t>
   </si>
   <si>
     <t>Je saisit "Start"</t>
@@ -141,9 +111,6 @@
 "Voir les scores"</t>
   </si>
   <si>
-    <t>L'application affiche les score précédent, le joueur qui a fait les scores et la date du score</t>
-  </si>
-  <si>
     <t>Je dois saisire quelque chose</t>
   </si>
   <si>
@@ -156,12 +123,6 @@
     <t>L'application se ferme</t>
   </si>
   <si>
-    <t>Quitter l'aplication</t>
-  </si>
-  <si>
-    <t>Quitter la BN</t>
-  </si>
-  <si>
     <t>Faire autre chose</t>
   </si>
   <si>
@@ -171,7 +132,46 @@
     <t>Lancer la bataille navale</t>
   </si>
   <si>
-    <t>BN = Bataille Navale</t>
+    <t>Avoir l'application</t>
+  </si>
+  <si>
+    <t>Quitter l'application</t>
+  </si>
+  <si>
+    <t>Quitter la BatailleNavale</t>
+  </si>
+  <si>
+    <t>Je choisit ce que je veut faire</t>
+  </si>
+  <si>
+    <t>L'application affiche les scores précédent, le joueur qui a fait les scores et la date des scores</t>
+  </si>
+  <si>
+    <t>Apprendre à jouer</t>
+  </si>
+  <si>
+    <t>J'éxécute l'application</t>
+  </si>
+  <si>
+    <t>Je saisit 
+"Apprendre à jouer"</t>
+  </si>
+  <si>
+    <t>L'application m'affiche les
+règles de la BatailleNavale, 
+comment jouer et un exemple</t>
+  </si>
+  <si>
+    <t>Si je pense que j'ai bien 
+compris les règles</t>
+  </si>
+  <si>
+    <t>L'ordinateur m'affiche si j'ai touché et je dois à nouveau saisir des coordonées jusqu'à que tous les bateaux enemis soient détruit</t>
+  </si>
+  <si>
+    <t>J'entre mes premières
+coordonées et j'observe ce qui
+se passe</t>
   </si>
 </sst>
 </file>
@@ -682,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -698,11 +698,9 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>45</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -720,7 +718,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -740,7 +738,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -761,24 +759,24 @@
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -788,13 +786,13 @@
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -809,11 +807,11 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="25" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -877,14 +875,14 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C13"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -892,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C1" s="12"/>
     </row>
@@ -910,7 +908,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -926,7 +924,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -943,24 +941,24 @@
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -975,13 +973,13 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1007,7 +1005,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C11"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1022,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C1" s="11"/>
     </row>
@@ -1040,7 +1038,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C3" s="11"/>
     </row>
@@ -1049,7 +1047,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C4" s="11"/>
     </row>
@@ -1058,7 +1056,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -1075,24 +1073,24 @@
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1107,22 +1105,22 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="21" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1140,14 +1138,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1156,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1172,7 +1170,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1180,7 +1178,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1188,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -1205,24 +1203,24 @@
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Sénar.xlsx
+++ b/Documentation/Sénar.xlsx
@@ -77,9 +77,6 @@
     <t>Savoir jouer a la BN</t>
   </si>
   <si>
-    <t>L'application me demande de saisir mes première coordonée</t>
-  </si>
-  <si>
     <t>Avoir apris a jouer</t>
   </si>
   <si>
@@ -172,6 +169,9 @@
     <t>J'entre mes premières
 coordonées et j'observe ce qui
 se passe</t>
+  </si>
+  <si>
+    <t>L'application me demande de saisir mes premières coordonées</t>
   </si>
 </sst>
 </file>
@@ -683,7 +683,7 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="C11" sqref="C11:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -718,7 +718,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -759,10 +759,10 @@
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>14</v>
@@ -770,13 +770,13 @@
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -789,10 +789,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -807,11 +807,11 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -890,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="12"/>
     </row>
@@ -924,7 +924,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -941,7 +941,7 @@
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>13</v>
@@ -952,13 +952,13 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="28" t="s">
         <v>41</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -973,13 +973,13 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="11"/>
     </row>
@@ -1038,7 +1038,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="11"/>
     </row>
@@ -1047,7 +1047,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="11"/>
     </row>
@@ -1056,7 +1056,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -1084,13 +1084,13 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="28" t="s">
         <v>37</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1105,22 +1105,22 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>28</v>
-      </c>
       <c r="C12" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>29</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1170,7 +1170,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1178,7 +1178,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1186,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -1206,7 +1206,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>14</v>
@@ -1214,13 +1214,13 @@
     </row>
     <row r="9" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>29</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
